--- a/design_document/ポーカーアプリ概要.xlsx
+++ b/design_document/ポーカーアプリ概要.xlsx
@@ -2078,8 +2078,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1057275" y="15392400"/>
-            <a:ext cx="2000250" cy="1304925"/>
+            <a:off x="1057275" y="15287626"/>
+            <a:ext cx="2000250" cy="1409700"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2137,6 +2137,21 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>次のゲームをするか、やめるかをユーザーに問いかける。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>次のゲームを選ぶと</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>へ戻る</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2496,7 +2511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
